--- a/upload/datatestingexcel/excel.xlsx
+++ b/upload/datatestingexcel/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SRIPSI KAK DANI KNN\bekup fileku @ KNN\CONTOH  PERHITUNGAN  ECLUDIEN  DISTANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B91ECE80-2735-4A86-ADA8-CB9EC3F2075D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C52FF1-17E7-4244-9300-938EB99F38BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A9EB509-0DD1-4906-B9B2-22CB84AA8F05}"/>
   </bookViews>
@@ -25,7 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>IPK</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Gaji</t>
+  </si>
+  <si>
+    <t>TTG</t>
+  </si>
+  <si>
+    <t>UKT</t>
+  </si>
   <si>
     <t>A</t>
   </si>
@@ -52,14 +70,25 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,10 +118,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,193 +438,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E97852C-ADBC-41F0-A0EA-DAFCD2C9C9BB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>3.6</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="2">
         <v>3500</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="2">
         <v>3330</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
         <v>2.75</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
         <v>5500</v>
       </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
         <v>3130</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3700</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2950</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2800</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2790</v>
+      </c>
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="F6" s="2">
+        <v>2700</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2995</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2940</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2560</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3610</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
         <v>2.7</v>
       </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3700</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.63</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2800</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.82</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2790</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D9" s="2">
+        <v>2550</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3710</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2860</v>
+      </c>
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2995</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.93</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2560</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2550</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.66</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2860</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>2870</v>
       </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
